--- a/datosfinales.xlsx
+++ b/datosfinales.xlsx
@@ -533,8 +533,8 @@
   <dimension ref="A1:O848"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E713" sqref="E713"/>
+      <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D836" sqref="D836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -38220,12 +38220,12 @@
       </c>
       <c r="C826" s="8" t="inlineStr">
         <is>
-          <t>universidadleon</t>
+          <t>unileon</t>
         </is>
       </c>
       <c r="D826" s="8" t="inlineStr">
         <is>
-          <t>2017-05-26</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="E826" s="8" t="n"/>
@@ -38698,12 +38698,12 @@
       </c>
       <c r="C836" s="8" t="inlineStr">
         <is>
-          <t>unisantiago</t>
+          <t>UniversidadeUSC</t>
         </is>
       </c>
       <c r="D836" s="8" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="E836" s="8" t="inlineStr">
